--- a/reopening_il.xlsx
+++ b/reopening_il.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\mobility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\replicate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -435,9 +435,6 @@
     <t>warehousing</t>
   </si>
   <si>
-    <t>logistics</t>
-  </si>
-  <si>
     <t>grouped in with manufacturing</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>childcare</t>
+  </si>
+  <si>
+    <t>transportation</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -543,7 +543,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,16 +830,16 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -907,9 +907,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3">
         <v>6244</v>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>121</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>124</v>
       </c>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>134</v>
       </c>
@@ -1000,30 +1000,30 @@
         <v>128</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B11" s="4">
-        <v>488</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
@@ -1034,13 +1034,13 @@
         <v>128</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>125</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -1141,9 +1141,9 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="4">
         <v>722</v>
@@ -1152,16 +1152,16 @@
         <v>128</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="B20" s="4">
         <v>7111</v>
@@ -1170,16 +1170,16 @@
         <v>128</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="5">
         <v>4</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>71213</v>
@@ -1188,14 +1188,14 @@
         <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1206,16 +1206,16 @@
         <v>128</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="5">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>71211</v>
@@ -1224,16 +1224,16 @@
         <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="5">
         <v>4</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24">
         <v>711</v>
@@ -1242,14 +1242,14 @@
         <v>128</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="5">
         <v>4</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="5">
         <v>4</v>
@@ -1268,9 +1268,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26">
         <v>71394</v>
@@ -1279,7 +1279,7 @@
         <v>128</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="5">
         <v>4</v>
@@ -1287,7 +1287,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1298,15 +1298,15 @@
         <v>128</v>
       </c>
       <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="B28">
         <v>51211</v>
@@ -1318,13 +1318,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="C35" s="12"/>
     </row>
@@ -1339,16 +1339,16 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>17001</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>17003</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>17005</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>17007</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>17009</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>17011</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>17013</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>17015</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>17017</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>17019</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>17021</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>17023</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>17025</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>17027</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>17029</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>17031</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17033</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17035</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17037</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17039</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>17041</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>17043</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>17045</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>17047</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>17049</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>17051</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>17053</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>17055</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>17057</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>17059</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>17061</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>17063</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>17065</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>17067</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>17069</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>17071</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>17073</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>17075</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>17077</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>17079</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>17081</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>17083</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>17085</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>17087</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>17089</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>17091</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>17093</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>17095</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>17097</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>17099</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>17101</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>17103</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>17105</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>17107</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>17109</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>17111</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>17113</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>17115</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>17117</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>17119</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>17121</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>17123</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>17125</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>17127</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>17129</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>17131</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>17133</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>17135</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>17137</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>17139</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>17141</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>17143</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>17145</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>17147</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>17149</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>17151</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>17153</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>17155</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>17157</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>17159</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>17161</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>17163</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>17165</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>17167</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>17169</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>17171</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>17173</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>17175</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>17177</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>17179</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>17181</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>17183</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>17185</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>17187</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>17189</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>17191</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>17193</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>17195</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>17197</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>17199</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>17201</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>17203</v>
       </c>
